--- a/trunk/Arquitectura de Negocios/Mapeo Entidad-Procesos/Mapeo Entidad-Procesos v1.0.xlsx
+++ b/trunk/Arquitectura de Negocios/Mapeo Entidad-Procesos/Mapeo Entidad-Procesos v1.0.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$5:$BK$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$4:$BK$66</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="137">
   <si>
     <t>Programa Educativo Rural</t>
   </si>
@@ -393,15 +393,6 @@
     <t>Pagar Presupuesto de Construcción</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>? PROYECTO</t>
-  </si>
-  <si>
-    <t>? Q contrato</t>
-  </si>
-  <si>
     <t>Emitir Cartas  NO ENCUENTRO ENTIDAD ALGUNA</t>
   </si>
   <si>
@@ -430,13 +421,22 @@
   </si>
   <si>
     <t>Recibir y Depositar efectivo a los Bancos NO ENCUENTRO RELACION</t>
+  </si>
+  <si>
+    <t>Total de Procesos por Entidad</t>
+  </si>
+  <si>
+    <t>Total de Entidades por Proceso</t>
+  </si>
+  <si>
+    <t>ENTIDADES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,8 +466,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +539,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
@@ -737,10 +757,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -773,27 +789,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -833,6 +828,57 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,13 +1181,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BK67"/>
+  <dimension ref="B2:BM66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="U12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="AT55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AC17" sqref="AC17"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,234 +1196,378 @@
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="71.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="39" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.42578125" customWidth="1"/>
-    <col min="44" max="44" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="58" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.140625" customWidth="1"/>
+    <col min="5" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="3.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="6.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="9.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="6.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="12.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="3.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="54" max="58" width="3.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="6.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="3.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.140625" style="38" customWidth="1"/>
+    <col min="64" max="65" width="11.42578125" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="N2" t="s">
+    <row r="2" spans="2:65" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="45"/>
+      <c r="AZ2" s="45"/>
+      <c r="BA2" s="45"/>
+      <c r="BB2" s="45"/>
+      <c r="BC2" s="45"/>
+      <c r="BD2" s="45"/>
+      <c r="BE2" s="45"/>
+      <c r="BF2" s="45"/>
+      <c r="BG2" s="45"/>
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="45"/>
+    </row>
+    <row r="3" spans="2:65" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:65" s="3" customFormat="1" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="5"/>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Q2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="2:63" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:63" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:63" s="3" customFormat="1" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="7"/>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="X4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM4" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN4" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO4" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP4" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ4" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR4" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS4" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT4" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU4" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW4" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY4" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="AZ4" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA4" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB4" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC4" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE4" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG4" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH4" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="BI4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ4" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK4" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="41"/>
+    </row>
+    <row r="5" spans="2:65" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="42">
+        <f>COUNTA(E5:BJ5)</f>
         <v>7</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ5" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>57</v>
+    </row>
+    <row r="6" spans="2:65" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1414,25 +1604,15 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AQ6" s="2"/>
-      <c r="AR6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
@@ -1449,16 +1629,16 @@
       <c r="BH6" s="2"/>
       <c r="BI6" s="2"/>
       <c r="BJ6" s="2"/>
-      <c r="BK6">
-        <f>COUNTA(E6:BJ6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="29"/>
+      <c r="BK6" s="42">
+        <f t="shared" ref="BK6:BK65" si="0">COUNTA(E6:BJ6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:65" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1497,12 +1677,12 @@
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
       <c r="AO7" s="2"/>
-      <c r="AP7" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
+      <c r="AS7" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
@@ -1520,16 +1700,16 @@
       <c r="BH7" s="2"/>
       <c r="BI7" s="2"/>
       <c r="BJ7" s="2"/>
-      <c r="BK7">
-        <f t="shared" ref="BK7:BK66" si="0">COUNTA(E7:BJ7)</f>
+      <c r="BK7" s="42">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="29"/>
+    <row r="8" spans="2:65" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1550,9 +1730,13 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
+      <c r="X8" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
+      <c r="Z8" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
@@ -1566,19 +1750,21 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
+      <c r="AN8" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
-      <c r="AS8" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
+      <c r="AX8" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
@@ -1591,16 +1777,16 @@
       <c r="BH8" s="2"/>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2"/>
-      <c r="BK8">
+      <c r="BK8" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="29"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:65" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1621,9 +1807,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
@@ -1639,21 +1823,19 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
-      <c r="AN9" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
       <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
+      <c r="AT9" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
-      <c r="AX9" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AX9" s="2"/>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2"/>
       <c r="BA9" s="2"/>
@@ -1666,16 +1848,16 @@
       <c r="BH9" s="2"/>
       <c r="BI9" s="2"/>
       <c r="BJ9" s="2"/>
-      <c r="BK9">
+      <c r="BK9" s="42">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="4" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:65" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1716,11 +1898,11 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
+      <c r="AR10" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AS10" s="2"/>
-      <c r="AT10" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
@@ -1737,16 +1919,18 @@
       <c r="BH10" s="2"/>
       <c r="BI10" s="2"/>
       <c r="BJ10" s="2"/>
-      <c r="BK10">
+      <c r="BK10" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="26"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="9" t="s">
-        <v>62</v>
+    <row r="11" spans="2:65" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1766,7 +1950,9 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
+      <c r="W11" s="36" t="s">
+        <v>125</v>
+      </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
@@ -1787,9 +1973,7 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
-      <c r="AR11" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
@@ -1797,8 +1981,12 @@
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
       <c r="AY11" s="2"/>
-      <c r="AZ11" s="2"/>
-      <c r="BA11" s="2"/>
+      <c r="AZ11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
       <c r="BD11" s="2"/>
@@ -1808,18 +1996,16 @@
       <c r="BH11" s="2"/>
       <c r="BI11" s="2"/>
       <c r="BJ11" s="2"/>
-      <c r="BK11">
+      <c r="BK11" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>64</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:65" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1839,9 +2025,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
@@ -1870,11 +2054,13 @@
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
       <c r="AY12" s="2"/>
-      <c r="AZ12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA12" s="2"/>
-      <c r="BB12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB12" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
@@ -1883,16 +2069,16 @@
       <c r="BH12" s="2"/>
       <c r="BI12" s="2"/>
       <c r="BJ12" s="2"/>
-      <c r="BK12">
+      <c r="BK12" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="29"/>
+    <row r="13" spans="2:65" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="4" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1943,10 +2129,10 @@
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BB13" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BC13" s="2"/>
       <c r="BD13" s="2"/>
@@ -1956,16 +2142,16 @@
       <c r="BH13" s="2"/>
       <c r="BI13" s="2"/>
       <c r="BJ13" s="2"/>
-      <c r="BK13">
+      <c r="BK13" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="29"/>
+    <row r="14" spans="2:65" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="4" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2013,14 +2199,12 @@
       <c r="AV14" s="2"/>
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
+      <c r="AY14" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AZ14" s="2"/>
-      <c r="BA14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB14" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
       <c r="BC14" s="2"/>
       <c r="BD14" s="2"/>
       <c r="BE14" s="2"/>
@@ -2029,16 +2213,16 @@
       <c r="BH14" s="2"/>
       <c r="BI14" s="2"/>
       <c r="BJ14" s="2"/>
-      <c r="BK14">
+      <c r="BK14" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:65" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2064,15 +2248,23 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
+      <c r="AC15" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
+      <c r="AH15" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
+      <c r="AJ15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
@@ -2085,10 +2277,10 @@
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="AX15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
@@ -2100,16 +2292,16 @@
       <c r="BH15" s="2"/>
       <c r="BI15" s="2"/>
       <c r="BJ15" s="2"/>
-      <c r="BK15">
+      <c r="BK15" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:65" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2135,20 +2327,14 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
-      <c r="AC16" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
-      <c r="AH16" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
-      <c r="AJ16" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
@@ -2162,9 +2348,7 @@
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2"/>
-      <c r="AX16" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
@@ -2177,16 +2361,16 @@
       <c r="BH16" s="2"/>
       <c r="BI16" s="2"/>
       <c r="BJ16" s="2"/>
-      <c r="BK16">
+      <c r="BK16" s="42">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="4" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2220,7 +2404,9 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
+      <c r="AK17" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
@@ -2246,16 +2432,16 @@
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
       <c r="BJ17" s="2"/>
-      <c r="BK17">
+      <c r="BK17" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="4" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2287,10 +2473,12 @@
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
+      <c r="AI18" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
@@ -2317,16 +2505,18 @@
       <c r="BH18" s="2"/>
       <c r="BI18" s="2"/>
       <c r="BJ18" s="2"/>
-      <c r="BK18">
+      <c r="BK18" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="26"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="9" t="s">
-        <v>69</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2349,8 +2539,12 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="Z19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -2358,15 +2552,15 @@
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
-      <c r="AK19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM19" s="37" t="s">
+        <v>125</v>
+      </c>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -2377,7 +2571,9 @@
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
+      <c r="AX19" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AY19" s="2"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
@@ -2390,18 +2586,16 @@
       <c r="BH19" s="2"/>
       <c r="BI19" s="2"/>
       <c r="BJ19" s="2"/>
-      <c r="BK19">
+      <c r="BK19" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>71</v>
+      <c r="B20" s="17"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2421,13 +2615,15 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="W20" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="Z20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
@@ -2438,11 +2634,9 @@
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
-      <c r="AL20" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AL20" s="2"/>
       <c r="AM20" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
@@ -2454,9 +2648,7 @@
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2"/>
-      <c r="AX20" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2"/>
       <c r="BA20" s="2"/>
@@ -2469,16 +2661,16 @@
       <c r="BH20" s="2"/>
       <c r="BI20" s="2"/>
       <c r="BJ20" s="2"/>
-      <c r="BK20">
+      <c r="BK20" s="42">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="4" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2498,9 +2690,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
@@ -2517,7 +2707,7 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN21" s="2"/>
       <c r="AO21" s="2"/>
@@ -2542,16 +2732,16 @@
       <c r="BH21" s="2"/>
       <c r="BI21" s="2"/>
       <c r="BJ21" s="2"/>
-      <c r="BK21">
+      <c r="BK21" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="4" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="18"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2588,7 +2778,7 @@
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
@@ -2613,16 +2803,20 @@
       <c r="BH22" s="2"/>
       <c r="BI22" s="2"/>
       <c r="BJ22" s="2"/>
-      <c r="BK22">
+      <c r="BK22" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="27"/>
-      <c r="C23" s="30"/>
+    <row r="23" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="D23" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2658,9 +2852,7 @@
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
-      <c r="AM23" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
@@ -2679,25 +2871,25 @@
       <c r="BC23" s="2"/>
       <c r="BD23" s="2"/>
       <c r="BE23" s="2"/>
-      <c r="BF23" s="2"/>
+      <c r="BF23" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="BG23" s="2"/>
-      <c r="BH23" s="2"/>
+      <c r="BH23" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="BI23" s="2"/>
       <c r="BJ23" s="2"/>
-      <c r="BK23">
+      <c r="BK23" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>76</v>
+      <c r="B24" s="24"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2717,7 +2909,9 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
+      <c r="W24" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
@@ -2751,26 +2945,26 @@
       <c r="BB24" s="2"/>
       <c r="BC24" s="2"/>
       <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="BE24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF24" s="2"/>
       <c r="BG24" s="2"/>
       <c r="BH24" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BI24" s="2"/>
       <c r="BJ24" s="2"/>
-      <c r="BK24">
+      <c r="BK24" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="33"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="12" t="s">
-        <v>77</v>
+      <c r="B25" s="24"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2790,9 +2984,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
@@ -2826,24 +3018,26 @@
       <c r="BB25" s="2"/>
       <c r="BC25" s="2"/>
       <c r="BD25" s="2"/>
-      <c r="BE25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="BG25" s="2"/>
-      <c r="BH25" s="2"/>
+      <c r="BH25" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="BI25" s="2"/>
       <c r="BJ25" s="2"/>
-      <c r="BK25">
+      <c r="BK25" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="12" t="s">
-        <v>78</v>
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2863,7 +3057,9 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
+      <c r="W26" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
@@ -2897,26 +3093,26 @@
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
       <c r="BD26" s="2"/>
-      <c r="BE26" s="2"/>
-      <c r="BF26" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="BE26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF26" s="2"/>
       <c r="BG26" s="2"/>
       <c r="BH26" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BI26" s="2"/>
       <c r="BJ26" s="2"/>
-      <c r="BK26">
+      <c r="BK26" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="12" t="s">
-        <v>79</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="24"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2936,9 +3132,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
@@ -2972,24 +3166,26 @@
       <c r="BB27" s="2"/>
       <c r="BC27" s="2"/>
       <c r="BD27" s="2"/>
-      <c r="BE27" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="BE27" s="2"/>
       <c r="BF27" s="2"/>
       <c r="BG27" s="2"/>
       <c r="BH27" s="2"/>
-      <c r="BI27" s="2"/>
+      <c r="BI27" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="BJ27" s="2"/>
-      <c r="BK27">
+      <c r="BK27" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="33"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="13" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="24"/>
+      <c r="C28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -3044,25 +3240,25 @@
       <c r="BC28" s="2"/>
       <c r="BD28" s="2"/>
       <c r="BE28" s="2"/>
-      <c r="BF28" s="2"/>
+      <c r="BF28" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="BG28" s="2"/>
       <c r="BH28" s="2"/>
-      <c r="BI28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BJ28" s="2"/>
-      <c r="BK28">
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK28" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
-      <c r="C29" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>82</v>
+      <c r="B29" s="24"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -3082,7 +3278,9 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
+      <c r="W29" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
@@ -3115,27 +3313,27 @@
       <c r="BA29" s="2"/>
       <c r="BB29" s="2"/>
       <c r="BC29" s="2"/>
-      <c r="BD29" s="2"/>
+      <c r="BD29" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="BE29" s="2"/>
-      <c r="BF29" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="BF29" s="2"/>
       <c r="BG29" s="2"/>
       <c r="BH29" s="2"/>
       <c r="BI29" s="2"/>
       <c r="BJ29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK29">
+        <v>125</v>
+      </c>
+      <c r="BK29" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="12" t="s">
-        <v>83</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="24"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -3155,9 +3353,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="W30" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
@@ -3189,31 +3385,37 @@
       <c r="AZ30" s="2"/>
       <c r="BA30" s="2"/>
       <c r="BB30" s="2"/>
-      <c r="BC30" s="2"/>
-      <c r="BD30" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="BC30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD30" s="2"/>
       <c r="BE30" s="2"/>
       <c r="BF30" s="2"/>
       <c r="BG30" s="2"/>
       <c r="BH30" s="2"/>
       <c r="BI30" s="2"/>
       <c r="BJ30" s="2"/>
-      <c r="BK30">
+      <c r="BK30" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="33"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="24"/>
+      <c r="C31" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -3248,7 +3450,9 @@
       <c r="AN31" s="2"/>
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
-      <c r="AQ31" s="2"/>
+      <c r="AQ31" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AR31" s="2"/>
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
@@ -3260,9 +3464,7 @@
       <c r="AZ31" s="2"/>
       <c r="BA31" s="2"/>
       <c r="BB31" s="2"/>
-      <c r="BC31" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="BC31" s="2"/>
       <c r="BD31" s="2"/>
       <c r="BE31" s="2"/>
       <c r="BF31" s="2"/>
@@ -3270,26 +3472,24 @@
       <c r="BH31" s="2"/>
       <c r="BI31" s="2"/>
       <c r="BJ31" s="2"/>
-      <c r="BK31">
+      <c r="BK31" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
-      <c r="C32" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>86</v>
+      <c r="B32" s="24"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -3326,7 +3526,7 @@
       <c r="AO32" s="2"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
@@ -3347,24 +3547,24 @@
       <c r="BH32" s="2"/>
       <c r="BI32" s="2"/>
       <c r="BJ32" s="2"/>
-      <c r="BK32">
+      <c r="BK32" s="42">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="12" t="s">
-        <v>87</v>
+      <c r="B33" s="24"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -3400,9 +3600,7 @@
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
-      <c r="AQ33" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
@@ -3422,24 +3620,24 @@
       <c r="BH33" s="2"/>
       <c r="BI33" s="2"/>
       <c r="BJ33" s="2"/>
-      <c r="BK33">
+      <c r="BK33" s="42">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="12" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="25"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3495,25 +3693,25 @@
       <c r="BH34" s="2"/>
       <c r="BI34" s="2"/>
       <c r="BJ34" s="2"/>
-      <c r="BK34">
+      <c r="BK34" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="34"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>124</v>
-      </c>
+    <row r="35" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -3546,13 +3744,17 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" s="2"/>
-      <c r="AO35" s="2"/>
+      <c r="AO35" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
-      <c r="AU35" s="2"/>
+      <c r="AU35" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AV35" s="2"/>
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
@@ -3568,20 +3770,16 @@
       <c r="BH35" s="2"/>
       <c r="BI35" s="2"/>
       <c r="BJ35" s="2"/>
-      <c r="BK35">
+      <c r="BK35" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>92</v>
+      <c r="B36" s="30"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3619,16 +3817,14 @@
       <c r="AL36" s="2"/>
       <c r="AM36" s="2"/>
       <c r="AN36" s="2"/>
-      <c r="AO36" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AO36" s="2"/>
       <c r="AP36" s="2"/>
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
       <c r="AS36" s="2"/>
       <c r="AT36" s="2"/>
       <c r="AU36" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AV36" s="2"/>
       <c r="AW36" s="2"/>
@@ -3645,16 +3841,16 @@
       <c r="BH36" s="2"/>
       <c r="BI36" s="2"/>
       <c r="BJ36" s="2"/>
-      <c r="BK36">
+      <c r="BK36" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="15" t="s">
-        <v>93</v>
+      <c r="B37" s="30"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3690,7 +3886,9 @@
       <c r="AJ37" s="2"/>
       <c r="AK37" s="2"/>
       <c r="AL37" s="2"/>
-      <c r="AM37" s="2"/>
+      <c r="AM37" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AN37" s="2"/>
       <c r="AO37" s="2"/>
       <c r="AP37" s="2"/>
@@ -3698,9 +3896,7 @@
       <c r="AR37" s="2"/>
       <c r="AS37" s="2"/>
       <c r="AT37" s="2"/>
-      <c r="AU37" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AU37" s="2"/>
       <c r="AV37" s="2"/>
       <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
@@ -3716,16 +3912,16 @@
       <c r="BH37" s="2"/>
       <c r="BI37" s="2"/>
       <c r="BJ37" s="2"/>
-      <c r="BK37">
+      <c r="BK37" s="42">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="15" t="s">
-        <v>94</v>
+      <c r="B38" s="30"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3761,9 +3957,7 @@
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
       <c r="AL38" s="2"/>
-      <c r="AM38" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AM38" s="2"/>
       <c r="AN38" s="2"/>
       <c r="AO38" s="2"/>
       <c r="AP38" s="2"/>
@@ -3772,8 +3966,12 @@
       <c r="AS38" s="2"/>
       <c r="AT38" s="2"/>
       <c r="AU38" s="2"/>
-      <c r="AV38" s="2"/>
-      <c r="AW38" s="2"/>
+      <c r="AV38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW38" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AX38" s="2"/>
       <c r="AY38" s="2"/>
       <c r="AZ38" s="2"/>
@@ -3787,16 +3985,16 @@
       <c r="BH38" s="2"/>
       <c r="BI38" s="2"/>
       <c r="BJ38" s="2"/>
-      <c r="BK38">
+      <c r="BK38" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="15" t="s">
-        <v>95</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="30"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3832,7 +4030,9 @@
       <c r="AJ39" s="2"/>
       <c r="AK39" s="2"/>
       <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
+      <c r="AM39" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AN39" s="2"/>
       <c r="AO39" s="2"/>
       <c r="AP39" s="2"/>
@@ -3841,12 +4041,8 @@
       <c r="AS39" s="2"/>
       <c r="AT39" s="2"/>
       <c r="AU39" s="2"/>
-      <c r="AV39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AW39" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
       <c r="AX39" s="2"/>
       <c r="AY39" s="2"/>
       <c r="AZ39" s="2"/>
@@ -3860,18 +4056,22 @@
       <c r="BH39" s="2"/>
       <c r="BI39" s="2"/>
       <c r="BJ39" s="2"/>
-      <c r="BK39">
+      <c r="BK39" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="19"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="30"/>
+      <c r="C40" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -3889,10 +4089,18 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
+      <c r="W40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
@@ -3905,9 +4113,7 @@
       <c r="AJ40" s="2"/>
       <c r="AK40" s="2"/>
       <c r="AL40" s="2"/>
-      <c r="AM40" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AM40" s="2"/>
       <c r="AN40" s="2"/>
       <c r="AO40" s="2"/>
       <c r="AP40" s="2"/>
@@ -3927,26 +4133,24 @@
       <c r="BD40" s="2"/>
       <c r="BE40" s="2"/>
       <c r="BF40" s="2"/>
-      <c r="BG40" s="2"/>
+      <c r="BG40" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="BH40" s="2"/>
       <c r="BI40" s="2"/>
       <c r="BJ40" s="2"/>
-      <c r="BK40">
+      <c r="BK40" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="19"/>
-      <c r="C41" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="B41" s="30"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -3964,17 +4168,11 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="X41" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
       <c r="Z41" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
@@ -4008,22 +4206,20 @@
       <c r="BD41" s="2"/>
       <c r="BE41" s="2"/>
       <c r="BF41" s="2"/>
-      <c r="BG41" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="BG41" s="2"/>
       <c r="BH41" s="2"/>
       <c r="BI41" s="2"/>
       <c r="BJ41" s="2"/>
-      <c r="BK41">
+      <c r="BK41" s="42">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="15" t="s">
-        <v>99</v>
+      <c r="B42" s="30"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4039,16 +4235,18 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
+      <c r="S42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
-      <c r="Z42" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
@@ -4085,16 +4283,16 @@
       <c r="BH42" s="2"/>
       <c r="BI42" s="2"/>
       <c r="BJ42" s="2"/>
-      <c r="BK42">
+      <c r="BK42" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="15" t="s">
-        <v>100</v>
+      <c r="B43" s="30"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -4110,13 +4308,11 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="U43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
@@ -4127,7 +4323,9 @@
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
+      <c r="AF43" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
@@ -4158,18 +4356,20 @@
       <c r="BH43" s="2"/>
       <c r="BI43" s="2"/>
       <c r="BJ43" s="2"/>
-      <c r="BK43">
+      <c r="BK43" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="2"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -4179,15 +4379,15 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
@@ -4198,9 +4398,7 @@
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
-      <c r="AF44" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
@@ -4227,24 +4425,24 @@
       <c r="BD44" s="2"/>
       <c r="BE44" s="2"/>
       <c r="BF44" s="2"/>
-      <c r="BG44" s="2"/>
+      <c r="BG44" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="BH44" s="2"/>
       <c r="BI44" s="2"/>
       <c r="BJ44" s="2"/>
-      <c r="BK44">
+      <c r="BK44" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="19"/>
-      <c r="C45" s="22"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -4254,16 +4452,18 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
+      <c r="S45" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
+      <c r="V45" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
@@ -4300,22 +4500,20 @@
       <c r="BD45" s="2"/>
       <c r="BE45" s="2"/>
       <c r="BF45" s="2"/>
-      <c r="BG45" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="BG45" s="2"/>
       <c r="BH45" s="2"/>
       <c r="BI45" s="2"/>
       <c r="BJ45" s="2"/>
-      <c r="BK45">
+      <c r="BK45" s="42">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="17" t="s">
-        <v>103</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="30"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -4331,18 +4529,18 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
+      <c r="Z46" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
@@ -4379,16 +4577,18 @@
       <c r="BH46" s="2"/>
       <c r="BI46" s="2"/>
       <c r="BJ46" s="2"/>
-      <c r="BK46">
+      <c r="BK46" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="19"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="16" t="s">
-        <v>104</v>
+    <row r="47" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="30"/>
+      <c r="C47" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -4409,18 +4609,20 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
-      <c r="X47" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
+      <c r="AB47" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
+      <c r="AD47" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE47" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
@@ -4452,18 +4654,16 @@
       <c r="BH47" s="2"/>
       <c r="BI47" s="2"/>
       <c r="BJ47" s="2"/>
-      <c r="BK47">
+      <c r="BK47" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
-      <c r="C48" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>106</v>
+      <c r="B48" s="30"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -4488,16 +4688,12 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
-      <c r="AB48" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE48" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
@@ -4529,16 +4725,16 @@
       <c r="BH48" s="2"/>
       <c r="BI48" s="2"/>
       <c r="BJ48" s="2"/>
-      <c r="BK48">
+      <c r="BK48" s="42">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="19"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="15" t="s">
-        <v>107</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="30"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -4565,12 +4761,14 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
-      <c r="AD49" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
+      <c r="AG49" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
@@ -4600,16 +4798,18 @@
       <c r="BH49" s="2"/>
       <c r="BI49" s="2"/>
       <c r="BJ49" s="2"/>
-      <c r="BK49">
+      <c r="BK49" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="19"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="16" t="s">
-        <v>108</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="30"/>
+      <c r="C50" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -4618,11 +4818,15 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="L50" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
+      <c r="P50" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -4637,13 +4841,9 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
-      <c r="AG50" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
@@ -4673,18 +4873,16 @@
       <c r="BH50" s="2"/>
       <c r="BI50" s="2"/>
       <c r="BJ50" s="2"/>
-      <c r="BK50">
+      <c r="BK50" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>110</v>
+      <c r="B51" s="30"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -4694,16 +4892,18 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
+      <c r="R51" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
@@ -4748,37 +4948,33 @@
       <c r="BH51" s="2"/>
       <c r="BI51" s="2"/>
       <c r="BJ51" s="2"/>
-      <c r="BK51">
+      <c r="BK51" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="15" t="s">
-        <v>111</v>
+      <c r="B52" s="30"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="K52" s="2"/>
-      <c r="L52" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
@@ -4823,26 +5019,28 @@
       <c r="BH52" s="2"/>
       <c r="BI52" s="2"/>
       <c r="BJ52" s="2"/>
-      <c r="BK52">
+      <c r="BK52" s="42">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="19"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="15" t="s">
-        <v>112</v>
+      <c r="B53" s="30"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -4894,27 +5092,25 @@
       <c r="BH53" s="2"/>
       <c r="BI53" s="2"/>
       <c r="BJ53" s="2"/>
-      <c r="BK53">
+      <c r="BK53" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="19"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="15" t="s">
-        <v>113</v>
+      <c r="B54" s="30"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -4967,16 +5163,16 @@
       <c r="BH54" s="2"/>
       <c r="BI54" s="2"/>
       <c r="BJ54" s="2"/>
-      <c r="BK54">
+      <c r="BK54" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="15" t="s">
-        <v>114</v>
+      <c r="B55" s="30"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -4985,11 +5181,15 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L55" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="N55" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -5038,16 +5238,16 @@
       <c r="BH55" s="2"/>
       <c r="BI55" s="2"/>
       <c r="BJ55" s="2"/>
-      <c r="BK55">
+      <c r="BK55" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="15" t="s">
-        <v>115</v>
+      <c r="B56" s="30"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -5055,19 +5255,17 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="K56" s="2"/>
       <c r="L56" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
+      <c r="Q56" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
@@ -5113,34 +5311,34 @@
       <c r="BH56" s="2"/>
       <c r="BI56" s="2"/>
       <c r="BJ56" s="2"/>
-      <c r="BK56">
+      <c r="BK56" s="42">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="19"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="15" t="s">
-        <v>116</v>
+      <c r="B57" s="30"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
-      <c r="Q57" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
@@ -5186,28 +5384,26 @@
       <c r="BH57" s="2"/>
       <c r="BI57" s="2"/>
       <c r="BJ57" s="2"/>
-      <c r="BK57">
+      <c r="BK57" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="15" t="s">
-        <v>117</v>
+    <row r="58" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="30"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -5259,16 +5455,18 @@
       <c r="BH58" s="2"/>
       <c r="BI58" s="2"/>
       <c r="BJ58" s="2"/>
-      <c r="BK58">
+      <c r="BK58" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="19"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="16" t="s">
-        <v>118</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="30"/>
+      <c r="C59" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -5277,9 +5475,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -5330,18 +5526,16 @@
       <c r="BH59" s="2"/>
       <c r="BI59" s="2"/>
       <c r="BJ59" s="2"/>
-      <c r="BK59">
+      <c r="BK59" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
-      <c r="C60" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>134</v>
+      <c r="B60" s="30"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -5401,16 +5595,16 @@
       <c r="BH60" s="2"/>
       <c r="BI60" s="2"/>
       <c r="BJ60" s="2"/>
-      <c r="BK60">
+      <c r="BK60" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="19"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="15" t="s">
-        <v>136</v>
+      <c r="B61" s="30"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -5429,7 +5623,9 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
+      <c r="V61" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
@@ -5470,19 +5666,21 @@
       <c r="BH61" s="2"/>
       <c r="BI61" s="2"/>
       <c r="BJ61" s="2"/>
-      <c r="BK61">
+      <c r="BK61" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="15" t="s">
-        <v>120</v>
+      <c r="B62" s="30"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -5499,7 +5697,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
@@ -5541,27 +5739,29 @@
       <c r="BH62" s="2"/>
       <c r="BI62" s="2"/>
       <c r="BJ62" s="2"/>
-      <c r="BK62">
+      <c r="BK62" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="15" t="s">
-        <v>121</v>
+      <c r="B63" s="30"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
+      <c r="L63" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -5571,9 +5771,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
-      <c r="V63" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
@@ -5614,29 +5812,25 @@
       <c r="BH63" s="2"/>
       <c r="BI63" s="2"/>
       <c r="BJ63" s="2"/>
-      <c r="BK63">
+      <c r="BK63" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="15" t="s">
-        <v>122</v>
+      <c r="B64" s="30"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="E64" s="2"/>
-      <c r="F64" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -5687,16 +5881,16 @@
       <c r="BH64" s="2"/>
       <c r="BI64" s="2"/>
       <c r="BJ64" s="2"/>
-      <c r="BK64">
+      <c r="BK64" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="2:63" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="19"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="15" t="s">
-        <v>135</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="31"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -5724,9 +5918,13 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
-      <c r="AE65" s="2"/>
+      <c r="AE65" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AF65" s="2"/>
-      <c r="AG65" s="2"/>
+      <c r="AG65" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="2"/>
@@ -5756,334 +5954,269 @@
       <c r="BH65" s="2"/>
       <c r="BI65" s="2"/>
       <c r="BJ65" s="2"/>
-      <c r="BK65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:63" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="20"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="2"/>
-      <c r="AC66" s="2"/>
-      <c r="AD66" s="2"/>
-      <c r="AE66" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF66" s="2"/>
-      <c r="AG66" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH66" s="2"/>
-      <c r="AI66" s="2"/>
-      <c r="AJ66" s="2"/>
-      <c r="AK66" s="2"/>
-      <c r="AL66" s="2"/>
-      <c r="AM66" s="2"/>
-      <c r="AN66" s="2"/>
-      <c r="AO66" s="2"/>
-      <c r="AP66" s="2"/>
-      <c r="AQ66" s="2"/>
-      <c r="AR66" s="2"/>
-      <c r="AS66" s="2"/>
-      <c r="AT66" s="2"/>
-      <c r="AU66" s="2"/>
-      <c r="AV66" s="2"/>
-      <c r="AW66" s="2"/>
-      <c r="AX66" s="2"/>
-      <c r="AY66" s="2"/>
-      <c r="AZ66" s="2"/>
-      <c r="BA66" s="2"/>
-      <c r="BB66" s="2"/>
-      <c r="BC66" s="2"/>
-      <c r="BD66" s="2"/>
-      <c r="BE66" s="2"/>
-      <c r="BF66" s="2"/>
-      <c r="BG66" s="2"/>
-      <c r="BH66" s="2"/>
-      <c r="BI66" s="2"/>
-      <c r="BJ66" s="2"/>
-      <c r="BK66">
+      <c r="BK65" s="42">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:63" x14ac:dyDescent="0.25">
-      <c r="E67">
-        <f>COUNTA(E6:E66)</f>
+    <row r="66" spans="2:63" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="42">
+        <f>COUNTA(E5:E65)</f>
         <v>6</v>
       </c>
-      <c r="F67">
-        <f>COUNTA(F6:F66)</f>
+      <c r="F66" s="42">
+        <f>COUNTA(F5:F65)</f>
         <v>2</v>
       </c>
-      <c r="G67" s="6">
-        <f>COUNTA(G6:G66)</f>
+      <c r="G66" s="42">
+        <f>COUNTA(G5:G65)</f>
         <v>1</v>
       </c>
-      <c r="H67" s="6">
-        <f>COUNTA(H6:H66)</f>
+      <c r="H66" s="42">
+        <f>COUNTA(H5:H65)</f>
         <v>4</v>
       </c>
-      <c r="I67" s="6">
-        <f>COUNTA(I6:I66)</f>
+      <c r="I66" s="42">
+        <f>COUNTA(I5:I65)</f>
         <v>1</v>
       </c>
-      <c r="J67" s="6">
-        <f t="shared" ref="J67:BJ67" si="1">COUNTA(J6:J66)</f>
+      <c r="J66" s="42">
+        <f t="shared" ref="J66:BJ66" si="1">COUNTA(J5:J65)</f>
         <v>1</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K66" s="42">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L66" s="42">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M66" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N67" s="6">
+      <c r="N66" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O67" s="6">
+      <c r="O66" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P67" s="6">
+      <c r="P66" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q67" s="6">
+      <c r="Q66" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R67" s="6">
+      <c r="R66" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S67">
+      <c r="S66" s="42">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T67">
+      <c r="T66" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U67">
+      <c r="U66" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V67">
+      <c r="V66" s="42">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="W67">
+      <c r="W66" s="42">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="X66" s="42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Y66" s="42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z66" s="42">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="X67">
+      <c r="AA66" s="42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB66" s="42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC66" s="42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD66" s="42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AE66" s="42">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="Y67">
+      <c r="AF66" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Z67">
+      <c r="AG66" s="42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AH66" s="42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AI66" s="42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AJ66" s="42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AK66" s="42">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AA67">
+      <c r="AL66" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB67">
+      <c r="AM66" s="42">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AN66" s="42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AO66" s="42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AP66" s="42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AQ66" s="42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AR66" s="42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AS66" s="42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AT66" s="42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AU66" s="42">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AV66" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC67">
+      <c r="AW66" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AD67">
+      <c r="AX66" s="42">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AY66" s="42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AZ66" s="42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BA66" s="42">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="BB66" s="42">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AE67">
+      <c r="BC66" s="42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BD66" s="42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BE66" s="42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="BF66" s="42">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AF67">
+      <c r="BG66" s="42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="BH66" s="42">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="BI66" s="42">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AG67">
+      <c r="BJ66" s="42">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AH67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AI67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AJ67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AK67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AL67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AM67">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AN67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AO67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AP67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AQ67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AR67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AS67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AT67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AU67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AV67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AW67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AX67">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AY67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AZ67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BA67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BB67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BC67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BD67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BE67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BF67">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="BG67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BH67">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BI67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BJ67">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="BK66" s="42">
+        <f>SUM(BK5:BK65)</f>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B6:B23"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="B24:B35"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B36:B66"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="C60:C66"/>
+  <mergeCells count="15">
+    <mergeCell ref="E2:BK2"/>
+    <mergeCell ref="B35:B65"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="C59:C65"/>
+    <mergeCell ref="B5:B22"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B23:B34"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Arquitectura de Negocios/Mapeo Entidad-Procesos/Mapeo Entidad-Procesos v1.0.xlsx
+++ b/trunk/Arquitectura de Negocios/Mapeo Entidad-Procesos/Mapeo Entidad-Procesos v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="270" windowWidth="15315" windowHeight="8070"/>
+    <workbookView xWindow="7755" yWindow="210" windowWidth="12990" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="135">
   <si>
     <t>Programa Educativo Rural</t>
   </si>
   <si>
-    <t>Planilla de Boleta de Remuneraciones</t>
-  </si>
-  <si>
     <t>Carta de Renuncia</t>
   </si>
   <si>
@@ -390,9 +387,6 @@
     <t>Pagar Presupuesto de Construcción</t>
   </si>
   <si>
-    <t>Emitir Cartas  NO ENCUENTRO ENTIDAD ALGUNA</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -405,12 +399,6 @@
     <t>Plan Operativo Anual Institucional</t>
   </si>
   <si>
-    <t>Pagar y Reponer Caja Chica NO ENCUENTRO RELACION</t>
-  </si>
-  <si>
-    <t>Recibir y Depositar efectivo a los Bancos NO ENCUENTRO RELACION</t>
-  </si>
-  <si>
     <t>ENTIDADES</t>
   </si>
   <si>
@@ -421,6 +409,21 @@
   </si>
   <si>
     <t>TOTAL DE ENTIDADES POR PROCESO</t>
+  </si>
+  <si>
+    <t>GESTIÓN DE CONTROL DE PAGOS</t>
+  </si>
+  <si>
+    <t>Emitir Cartas</t>
+  </si>
+  <si>
+    <t>Recibir y Depositar efectivo a los Bancos</t>
+  </si>
+  <si>
+    <t>Pagar y Reponer Caja Chica</t>
+  </si>
+  <si>
+    <t>Planilla y Boleta de Remuneraciones</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -762,6 +765,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -823,41 +862,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1163,10 +1169,10 @@
   <dimension ref="B2:BN62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E54" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,283 +1187,288 @@
     <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="24" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="3.85546875" customWidth="1"/>
     <col min="28" max="28" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.85546875" customWidth="1"/>
     <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="40" width="3.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="46" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.85546875" style="13" customWidth="1"/>
+    <col min="35" max="36" width="3.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="3.85546875" style="13" customWidth="1"/>
+    <col min="41" max="43" width="6.7109375" style="13" customWidth="1"/>
+    <col min="44" max="44" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="6.7109375" style="13" customWidth="1"/>
+    <col min="47" max="47" width="9.5703125" style="13" customWidth="1"/>
+    <col min="48" max="48" width="6.7109375" style="13" customWidth="1"/>
     <col min="49" max="50" width="3.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="52" max="59" width="3.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="3.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.7109375" style="13" customWidth="1"/>
+    <col min="52" max="59" width="3.85546875" style="13" customWidth="1"/>
+    <col min="60" max="61" width="6.7109375" style="13" customWidth="1"/>
+    <col min="62" max="62" width="3.85546875" style="13" customWidth="1"/>
+    <col min="63" max="63" width="6.7109375" style="13" customWidth="1"/>
+    <col min="64" max="64" width="6.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="65" max="66" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:66" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-      <c r="BK2" s="42"/>
-      <c r="BL2" s="42"/>
+      <c r="E2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25"/>
+      <c r="BF2" s="25"/>
+      <c r="BG2" s="25"/>
+      <c r="BH2" s="25"/>
+      <c r="BI2" s="25"/>
+      <c r="BJ2" s="25"/>
+      <c r="BK2" s="25"/>
+      <c r="BL2" s="25"/>
     </row>
-    <row r="3" spans="2:66" s="34" customFormat="1" ht="174" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+    <row r="3" spans="2:66" s="14" customFormat="1" ht="174" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="H3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="I3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="J3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="L3" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI3" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" s="36" t="s">
+      <c r="AO3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="X3" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC3" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD3" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE3" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF3" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG3" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH3" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI3" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ3" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK3" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL3" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM3" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN3" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO3" s="37" t="s">
+      <c r="AQ3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR3" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AP3" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ3" s="38" t="s">
+      <c r="AT3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="BC3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AR3" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS3" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT3" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU3" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV3" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW3" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX3" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY3" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="AZ3" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA3" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="BB3" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC3" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD3" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="BE3" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF3" s="37" t="s">
+      <c r="BG3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BG3" s="37" t="s">
+      <c r="BH3" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="BH3" s="37" t="s">
+      <c r="BI3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BI3" s="37" t="s">
+      <c r="BJ3" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="BJ3" s="37" t="s">
+      <c r="BK3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="BK3" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="BL3" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM3" s="39"/>
-      <c r="BN3" s="39"/>
+      <c r="BL3" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM3" s="19"/>
+      <c r="BN3" s="19"/>
     </row>
     <row r="4" spans="2:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1466,7 +1477,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1496,26 +1507,26 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
@@ -1532,16 +1543,16 @@
       <c r="BI4" s="1"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
-      <c r="BL4" s="44">
+      <c r="BL4" s="23">
         <f>COUNTA(E4:BK4)</f>
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1550,7 +1561,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1582,7 +1593,7 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
@@ -1604,16 +1615,16 @@
       <c r="BI5" s="1"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
-      <c r="BL5" s="44">
+      <c r="BL5" s="23">
         <f t="shared" ref="BL5:BL61" si="0">COUNTA(E5:BK5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1622,7 +1633,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1657,7 +1668,7 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
@@ -1676,16 +1687,16 @@
       <c r="BI6" s="1"/>
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
-      <c r="BL6" s="44">
+      <c r="BL6" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1694,7 +1705,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1707,11 +1718,11 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -1728,7 +1739,7 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AP7" s="1"/>
       <c r="AQ7" s="1"/>
@@ -1740,7 +1751,7 @@
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
@@ -1754,16 +1765,16 @@
       <c r="BI7" s="1"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
-      <c r="BL7" s="44">
+      <c r="BL7" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1772,7 +1783,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1808,7 +1819,7 @@
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
       <c r="AU8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
@@ -1826,16 +1837,16 @@
       <c r="BI8" s="1"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
-      <c r="BL8" s="44">
+      <c r="BL8" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:66" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1844,7 +1855,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1878,7 +1889,7 @@
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
@@ -1898,18 +1909,18 @@
       <c r="BI9" s="1"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
-      <c r="BL9" s="44">
+      <c r="BL9" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1918,7 +1929,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1929,13 +1940,13 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="40" t="s">
-        <v>124</v>
+      <c r="W10" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -1964,10 +1975,10 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BB10" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
@@ -1978,16 +1989,16 @@
       <c r="BI10" s="1"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
-      <c r="BL10" s="44">
+      <c r="BL10" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1996,7 +2007,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2039,10 +2050,10 @@
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
       <c r="BB11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
@@ -2052,16 +2063,16 @@
       <c r="BI11" s="1"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
-      <c r="BL11" s="44">
+      <c r="BL11" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2070,7 +2081,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2111,7 +2122,7 @@
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
@@ -2124,16 +2135,16 @@
       <c r="BI12" s="1"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
-      <c r="BL12" s="44">
+      <c r="BL12" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2142,7 +2153,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2160,22 +2171,22 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
@@ -2190,7 +2201,7 @@
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
@@ -2204,16 +2215,16 @@
       <c r="BI13" s="1"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
-      <c r="BL13" s="44">
+      <c r="BL13" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2222,7 +2233,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2246,7 +2257,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -2276,16 +2287,16 @@
       <c r="BI14" s="1"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
-      <c r="BL14" s="44">
+      <c r="BL14" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:66" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2294,7 +2305,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2321,7 +2332,7 @@
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
@@ -2348,16 +2359,16 @@
       <c r="BI15" s="1"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
-      <c r="BL15" s="44">
+      <c r="BL15" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:66" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2366,7 +2377,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -2391,11 +2402,11 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
@@ -2422,18 +2433,18 @@
       <c r="BI16" s="1"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
-      <c r="BL16" s="44">
+      <c r="BL16" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="27" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2442,7 +2453,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2457,10 +2468,10 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
@@ -2474,10 +2485,10 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN17" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="AN17" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
@@ -2490,7 +2501,7 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
       <c r="AY17" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
@@ -2504,16 +2515,16 @@
       <c r="BI17" s="1"/>
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
-      <c r="BL17" s="44">
+      <c r="BL17" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2522,7 +2533,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="21"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2534,12 +2545,12 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -2555,7 +2566,7 @@
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
@@ -2580,16 +2591,16 @@
       <c r="BI18" s="1"/>
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
-      <c r="BL18" s="44">
+      <c r="BL18" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:64" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2598,7 +2609,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="21"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2627,7 +2638,7 @@
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
@@ -2652,20 +2663,20 @@
       <c r="BI19" s="1"/>
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
-      <c r="BL19" s="44">
+      <c r="BL19" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="D20" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2674,7 +2685,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2722,24 +2733,24 @@
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
       <c r="BG20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BH20" s="1"/>
       <c r="BI20" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
-      <c r="BL20" s="44">
+      <c r="BL20" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2748,7 +2759,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2760,12 +2771,12 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -2799,25 +2810,25 @@
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BG21" s="1"/>
       <c r="BH21" s="1"/>
       <c r="BI21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
-      <c r="BL21" s="44">
+      <c r="BL21" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2826,7 +2837,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2874,24 +2885,24 @@
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
       <c r="BG22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BH22" s="1"/>
       <c r="BI22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
-      <c r="BL22" s="44">
+      <c r="BL22" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2900,7 +2911,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -2912,12 +2923,12 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -2951,25 +2962,25 @@
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BG23" s="1"/>
       <c r="BH23" s="1"/>
       <c r="BI23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
-      <c r="BL23" s="44">
+      <c r="BL23" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:64" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2978,7 +2989,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="21"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3029,21 +3040,21 @@
       <c r="BH24" s="1"/>
       <c r="BI24" s="1"/>
       <c r="BJ24" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BK24" s="1"/>
-      <c r="BL24" s="44">
+      <c r="BL24" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -3052,7 +3063,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="21"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -3100,24 +3111,24 @@
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
       <c r="BG25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BH25" s="1"/>
       <c r="BI25" s="1"/>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL25" s="44">
+        <v>122</v>
+      </c>
+      <c r="BL25" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -3126,7 +3137,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="21"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3138,12 +3149,12 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -3176,7 +3187,7 @@
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BF26" s="1"/>
       <c r="BG26" s="1"/>
@@ -3184,18 +3195,18 @@
       <c r="BI26" s="1"/>
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BL26" s="44">
+        <v>122</v>
+      </c>
+      <c r="BL26" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:64" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29"/>
-      <c r="C27" s="33"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -3204,7 +3215,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -3249,7 +3260,7 @@
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
       <c r="BD27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
@@ -3258,31 +3269,31 @@
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
-      <c r="BL27" s="44">
+      <c r="BL27" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="31" t="s">
+      <c r="B28" s="41"/>
+      <c r="C28" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="21"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -3315,7 +3326,7 @@
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS28" s="1"/>
       <c r="AT28" s="1"/>
@@ -3336,29 +3347,29 @@
       <c r="BI28" s="1"/>
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
-      <c r="BL28" s="44">
+      <c r="BL28" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
-      <c r="C29" s="32"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="21"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -3391,7 +3402,7 @@
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS29" s="1"/>
       <c r="AT29" s="1"/>
@@ -3412,29 +3423,29 @@
       <c r="BI29" s="1"/>
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
-      <c r="BL29" s="44">
+      <c r="BL29" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="21"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -3486,29 +3497,29 @@
       <c r="BI30" s="1"/>
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
-      <c r="BL30" s="44">
+      <c r="BL30" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:64" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="30"/>
-      <c r="C31" s="33"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="21"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -3560,20 +3571,20 @@
       <c r="BI31" s="1"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
-      <c r="BL31" s="44">
+      <c r="BL31" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="D32" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -3582,7 +3593,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="L32" s="21"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -3613,7 +3624,7 @@
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
       <c r="AP32" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
@@ -3621,7 +3632,7 @@
       <c r="AT32" s="1"/>
       <c r="AU32" s="1"/>
       <c r="AV32" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
@@ -3638,16 +3649,16 @@
       <c r="BI32" s="1"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
-      <c r="BL32" s="44">
+      <c r="BL32" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="18"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -3656,7 +3667,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="21"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -3693,7 +3704,7 @@
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
       <c r="AV33" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
@@ -3710,16 +3721,16 @@
       <c r="BI33" s="1"/>
       <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
-      <c r="BL33" s="44">
+      <c r="BL33" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -3728,7 +3739,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="21"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -3757,7 +3768,7 @@
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
@@ -3782,16 +3793,16 @@
       <c r="BI34" s="1"/>
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
-      <c r="BL34" s="44">
+      <c r="BL34" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -3800,7 +3811,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="L35" s="21"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3838,10 +3849,10 @@
       <c r="AU35" s="1"/>
       <c r="AV35" s="1"/>
       <c r="AW35" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AX35" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
@@ -3856,16 +3867,16 @@
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1"/>
-      <c r="BL35" s="44">
+      <c r="BL35" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:64" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="15"/>
-      <c r="C36" s="19"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3874,7 +3885,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="L36" s="21"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3903,7 +3914,7 @@
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
@@ -3928,21 +3939,21 @@
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
-      <c r="BL36" s="44">
+      <c r="BL36" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="27"/>
+      <c r="C37" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3950,7 +3961,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="L37" s="21"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -3962,16 +3973,16 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -4007,21 +4018,21 @@
       <c r="BF37" s="1"/>
       <c r="BG37" s="1"/>
       <c r="BH37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
-      <c r="BL37" s="44">
+      <c r="BL37" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -4030,7 +4041,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="L38" s="21"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -4045,7 +4056,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
@@ -4084,16 +4095,16 @@
       <c r="BI38" s="1"/>
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
-      <c r="BL38" s="44">
+      <c r="BL38" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -4102,7 +4113,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="L39" s="21"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -4110,10 +4121,10 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
@@ -4158,16 +4169,16 @@
       <c r="BI39" s="1"/>
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
-      <c r="BL39" s="44">
+      <c r="BL39" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
-      <c r="C40" s="18"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -4176,7 +4187,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="21"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -4186,7 +4197,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
@@ -4198,9 +4209,7 @@
       <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
-      <c r="AF40" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="AF40" s="1"/>
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
@@ -4232,19 +4241,19 @@
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1"/>
-      <c r="BL40" s="44">
+      <c r="BL40" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="15"/>
-      <c r="C41" s="18"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="30"/>
       <c r="D41" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -4252,11 +4261,11 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="21"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -4303,21 +4312,21 @@
       <c r="BF41" s="1"/>
       <c r="BG41" s="1"/>
       <c r="BH41" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
-      <c r="BL41" s="44">
+      <c r="BL41" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="20"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -4326,7 +4335,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="21"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -4334,12 +4343,12 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
@@ -4382,16 +4391,16 @@
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
-      <c r="BL42" s="44">
+      <c r="BL42" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:64" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -4400,7 +4409,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="L43" s="21"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -4412,12 +4421,12 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
@@ -4456,18 +4465,18 @@
       <c r="BI43" s="1"/>
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
-      <c r="BL43" s="44">
+      <c r="BL43" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
-      <c r="C44" s="17" t="s">
+      <c r="B44" s="27"/>
+      <c r="C44" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -4476,7 +4485,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+      <c r="L44" s="21"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -4493,14 +4502,14 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
@@ -4534,16 +4543,16 @@
       <c r="BI44" s="1"/>
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
-      <c r="BL44" s="44">
+      <c r="BL44" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -4552,7 +4561,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+      <c r="L45" s="21"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -4571,10 +4580,12 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
+      <c r="AF45" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
@@ -4606,16 +4617,16 @@
       <c r="BI45" s="1"/>
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
-      <c r="BL45" s="44">
+      <c r="BL45" s="23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="2:64" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="15"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -4624,7 +4635,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
+      <c r="L46" s="21"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -4644,11 +4655,11 @@
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
@@ -4680,18 +4691,18 @@
       <c r="BI46" s="1"/>
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
-      <c r="BL46" s="44">
+      <c r="BL46" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="27"/>
+      <c r="C47" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -4700,14 +4711,14 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="1" t="s">
-        <v>124</v>
+      <c r="L47" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -4756,16 +4767,16 @@
       <c r="BI47" s="1"/>
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
-      <c r="BL47" s="44">
+      <c r="BL47" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="15"/>
-      <c r="C48" s="18"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="30"/>
       <c r="D48" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -4774,18 +4785,18 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="1" t="s">
-        <v>124</v>
+      <c r="L48" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -4832,16 +4843,16 @@
       <c r="BI48" s="1"/>
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
-      <c r="BL48" s="44">
+      <c r="BL48" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="15"/>
-      <c r="C49" s="18"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -4849,10 +4860,10 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="L49" s="21"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -4904,29 +4915,29 @@
       <c r="BI49" s="1"/>
       <c r="BJ49" s="1"/>
       <c r="BK49" s="1"/>
-      <c r="BL49" s="44">
+      <c r="BL49" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="15"/>
-      <c r="C50" s="18"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="30"/>
       <c r="D50" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L50" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="L50" s="21"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -4978,16 +4989,16 @@
       <c r="BI50" s="1"/>
       <c r="BJ50" s="1"/>
       <c r="BK50" s="1"/>
-      <c r="BL50" s="44">
+      <c r="BL50" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
-      <c r="C51" s="18"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -4996,9 +5007,9 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L51" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="L51" s="21"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -5050,16 +5061,16 @@
       <c r="BI51" s="1"/>
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
-      <c r="BL51" s="44">
+      <c r="BL51" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
-      <c r="C52" s="18"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="30"/>
       <c r="D52" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5068,14 +5079,14 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="L52" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -5126,16 +5137,16 @@
       <c r="BI52" s="1"/>
       <c r="BJ52" s="1"/>
       <c r="BK52" s="1"/>
-      <c r="BL52" s="44">
+      <c r="BL52" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
-      <c r="C53" s="18"/>
+    <row r="53" spans="2:64" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="27"/>
+      <c r="C53" s="30"/>
       <c r="D53" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -5144,15 +5155,15 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="1" t="s">
-        <v>124</v>
+      <c r="L53" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -5200,28 +5211,28 @@
       <c r="BI53" s="1"/>
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
-      <c r="BL53" s="44">
+      <c r="BL53" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
-      <c r="C54" s="18"/>
+    <row r="54" spans="2:64" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="27"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="1" t="s">
-        <v>124</v>
+      <c r="L54" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -5274,16 +5285,16 @@
       <c r="BI54" s="1"/>
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
-      <c r="BL54" s="44">
+      <c r="BL54" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:64" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="15"/>
-      <c r="C55" s="19"/>
+    <row r="55" spans="2:64" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="27"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5292,8 +5303,8 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="1" t="s">
-        <v>124</v>
+      <c r="L55" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -5346,16 +5357,18 @@
       <c r="BI55" s="1"/>
       <c r="BJ55" s="1"/>
       <c r="BK55" s="1"/>
-      <c r="BL55" s="44">
+      <c r="BL55" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="15"/>
-      <c r="C56" s="18"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="30" t="s">
+        <v>130</v>
+      </c>
       <c r="D56" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5364,7 +5377,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+      <c r="L56" s="21"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -5391,7 +5404,7 @@
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
       <c r="AL56" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM56" s="1"/>
       <c r="AN56" s="1"/>
@@ -5418,16 +5431,16 @@
       <c r="BI56" s="1"/>
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
-      <c r="BL56" s="44">
+      <c r="BL56" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="15"/>
-      <c r="C57" s="18"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="30"/>
       <c r="D57" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5436,7 +5449,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="L57" s="21"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -5447,7 +5460,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
@@ -5490,27 +5503,27 @@
       <c r="BI57" s="1"/>
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
-      <c r="BL57" s="44">
+      <c r="BL57" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="15"/>
-      <c r="C58" s="18"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="30"/>
       <c r="D58" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="L58" s="21"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
@@ -5521,7 +5534,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
@@ -5564,28 +5577,28 @@
       <c r="BI58" s="1"/>
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
-      <c r="BL58" s="44">
+      <c r="BL58" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="15"/>
-      <c r="C59" s="18"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="1" t="s">
-        <v>124</v>
+      <c r="L59" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -5638,16 +5651,16 @@
       <c r="BI59" s="1"/>
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
-      <c r="BL59" s="44">
+      <c r="BL59" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="2:64" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="15"/>
-      <c r="C60" s="18"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="10" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5656,7 +5669,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+      <c r="L60" s="21"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -5667,7 +5680,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
@@ -5710,16 +5723,16 @@
       <c r="BI60" s="1"/>
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
-      <c r="BL60" s="44">
+      <c r="BL60" s="23">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:64" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="16"/>
-      <c r="C61" s="19"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5728,7 +5741,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
+      <c r="L61" s="21"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -5748,11 +5761,11 @@
       <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
       <c r="AE61" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AF61" s="1"/>
       <c r="AG61" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
@@ -5784,257 +5797,258 @@
       <c r="BI61" s="1"/>
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1"/>
-      <c r="BL61" s="44">
+      <c r="BL61" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="2:64" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D62" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" s="44">
+      <c r="D62" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="23">
         <f>COUNTA(E4:E61)</f>
         <v>6</v>
       </c>
-      <c r="F62" s="44">
+      <c r="F62" s="23">
         <f>COUNTA(F4:F61)</f>
         <v>2</v>
       </c>
-      <c r="G62" s="44">
+      <c r="G62" s="23">
         <f>COUNTA(G4:G61)</f>
         <v>1</v>
       </c>
-      <c r="H62" s="44">
+      <c r="H62" s="23">
         <f>COUNTA(H4:H61)</f>
         <v>4</v>
       </c>
-      <c r="I62" s="44">
+      <c r="I62" s="23">
         <f>COUNTA(I4:I61)</f>
         <v>1</v>
       </c>
-      <c r="J62" s="44">
+      <c r="J62" s="23">
         <f t="shared" ref="J62:BK62" si="1">COUNTA(J4:J61)</f>
         <v>1</v>
       </c>
-      <c r="K62" s="44">
+      <c r="K62" s="23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L62" s="44">
+      <c r="L62" s="23">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M62" s="44">
+      <c r="M62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N62" s="44">
+      <c r="N62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O62" s="44">
+      <c r="O62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P62" s="44">
+      <c r="P62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q62" s="44">
+      <c r="Q62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R62" s="44">
+      <c r="R62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S62" s="44">
+      <c r="S62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T62" s="44">
+      <c r="T62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U62" s="44">
+      <c r="U62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V62" s="44">
+      <c r="V62" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="W62" s="44">
+      <c r="W62" s="23">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="X62" s="44">
+      <c r="X62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Y62" s="44">
+      <c r="Y62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Z62" s="44">
+      <c r="Z62" s="23">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="AA62" s="44">
+      <c r="AA62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB62" s="44">
+      <c r="AB62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC62" s="44">
+      <c r="AC62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AD62" s="44">
+      <c r="AD62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AE62" s="44">
+      <c r="AE62" s="23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AF62" s="44">
+      <c r="AF62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AG62" s="44">
+      <c r="AG62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AH62" s="44">
+      <c r="AH62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AI62" s="44">
+      <c r="AI62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ62" s="44">
+      <c r="AJ62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK62" s="44">
+      <c r="AK62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AL62" s="44">
+      <c r="AL62" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AM62" s="44">
+      <c r="AM62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AN62" s="44">
+      <c r="AN62" s="23">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AO62" s="44">
+      <c r="AO62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AP62" s="44">
+      <c r="AP62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AQ62" s="44">
+      <c r="AQ62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AR62" s="44">
+      <c r="AR62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AS62" s="44">
+      <c r="AS62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AT62" s="44">
+      <c r="AT62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AU62" s="44">
+      <c r="AU62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AV62" s="44">
+      <c r="AV62" s="23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AW62" s="44">
+      <c r="AW62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AX62" s="44">
+      <c r="AX62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AY62" s="44">
+      <c r="AY62" s="23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AZ62" s="44">
+      <c r="AZ62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BA62" s="44">
+      <c r="BA62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BB62" s="44">
+      <c r="BB62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BC62" s="44">
+      <c r="BC62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BD62" s="44">
+      <c r="BD62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BE62" s="44">
+      <c r="BE62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BF62" s="44">
+      <c r="BF62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BG62" s="44">
+      <c r="BG62" s="23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="BH62" s="44">
+      <c r="BH62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BI62" s="44">
+      <c r="BI62" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="BJ62" s="44">
+      <c r="BJ62" s="23">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BK62" s="44">
+      <c r="BK62" s="23">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BL62" s="44">
+      <c r="BL62" s="23">
         <f>SUM(BL4:BL61)</f>
         <v>127</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:BN62"/>
   <mergeCells count="15">
     <mergeCell ref="E2:BL2"/>
     <mergeCell ref="B32:B61"/>
